--- a/ticket.xlsx
+++ b/ticket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12020" tabRatio="707" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12020" tabRatio="707" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="588" sheetId="1" r:id="rId1"/>
@@ -5803,8 +5803,8 @@
   <sheetPr/>
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -10520,7 +10520,7 @@
   <sheetPr/>
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -21305,8 +21305,8 @@
   <sheetPr/>
   <dimension ref="A1:D682"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="3"/>
